--- a/data/BIGTK (TRY).xlsx
+++ b/data/BIGTK (TRY).xlsx
@@ -5174,6 +5174,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-5000905</v>
+      </c>
       <c r="C108">
         <v>-6800703.7294058595</v>
       </c>
